--- a/webparse/제외리스트.xlsx
+++ b/webparse/제외리스트.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$101</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>미미사</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>㈜애드씨케이(대구혁신도시하우스디어반)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한애드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,6 +38,534 @@
   </si>
   <si>
     <t>해창한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사단법인한국청년지도자연합회대구지부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대박광고기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나래디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현수막천지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(사)현대불교용화세계불용사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서대구지식산업센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨피투자개발주식회사(미르메디타워)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제스포츠센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한솔요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모모키즈빌리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한불교조계종부인사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리바트스타일샵대구중구점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수성중동병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행복한갈비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사성서드림타운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하양요양보호사교육원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿샷스크린골프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효성직업능력개발원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마더셰프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사케이67바이오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨톤보청기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민이네상사(BYC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료법인열경의료재단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방촌한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인다라한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미가복어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이잉글리쉬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국토지주택공사대구경북지역본부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹남성의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불불이족발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>델타클라이밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄스토리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국폴리텍특성화대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸다구밧데리할인점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효경지요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미산역학회(영진전문대학평생교육과정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안심슬링운동센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북중고등학교총동창회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금강보청기수성센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼우산업개발(삼우자동차학원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한교공인중개사학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사이레아이맘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이시아스터디존독서실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속초식당성서속풀이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예솔한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화주택방수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성당자동차운전전문학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국폴리텍대학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독일지멘스서구점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태왕산업개발주식회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구공업대학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼정골프연습장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월배우리요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구벨톤보청기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명덕효요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제형면옥(상인점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽호순병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘지기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이스침대구암대리점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바름퍼스널트레이닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니버시아드레포츠센타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청춘주간보호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍선생미술대구북부지사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이원학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유즈요가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한한우갈비살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한우리국어학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사석희(젠요가필라테스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사도도컴(칠곡라이라이중국어학원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창의똑똑교육원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대명의료재단서대구병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코아이비인후과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완도전복마을(칠곡점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옛날집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구화사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안심사(혜명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침산올바른통증의학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔에스(NS)학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이(Y)요가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어!복어네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)애드씨케이(대구혁신도시하우스디어반)</t>
+  </si>
+  <si>
+    <t>(주)북방교육연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)대교대구북부지점(눈높이동변러닝센터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)파워프라자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알스퀘어컴퍼니(주)(휘트니스센터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)신창모터스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대경모터스(주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영남산업안전관리(주)</t>
+  </si>
+  <si>
+    <t>DB생명보험(주)</t>
+  </si>
+  <si>
+    <t>대진부동산중개(주)</t>
+  </si>
+  <si>
+    <t>진심내과의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한사랑요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑을적성상담연구원(영진전문대평생교육원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침산요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계실버타운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재희수학학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누리마을감자탕(태전점)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나마스떼요가원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿모닝신경과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대경신용협동조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참사랑어머니회,아가페간병사교육원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈비명가황우리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리아무용학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남대구요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)해림종합건설(파동드림힐즈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍선생아코디언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은오&amp;amp;로취</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사이덕아이앤씨(알레르망)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)하이프라자(LG전자베스트샵)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청담한의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이정재이비인후과의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞산요양병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래상사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국케이블티브이푸른방송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트루맨남성의원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠베스트SE남대구지사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모라인맞춤가발대구점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍승애풍기인견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식회사신강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구한의대학교부속대구한방병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불광사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍국면이시아폴리스점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스타워시스타덴트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,8 +612,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -422,6 +952,666 @@
     <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
